--- a/biology/Médecine/Plexus_nerveux_caverneux/Plexus_nerveux_caverneux.xlsx
+++ b/biology/Médecine/Plexus_nerveux_caverneux/Plexus_nerveux_caverneux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plexus nerveux caverneux est une composante du plexus nerveux carotidien et accompagne l'artère carotide interne, en dessous et en dedans, dans son trajet au niveau du sinus caverneux.
 Il communique avec les nerfs oculomoteurs, trochléaire, ophtalmique, abducens, et avec le ganglion ciliaire.
